--- a/medicine/Enfance/John_Boynton_Priestley/John_Boynton_Priestley.xlsx
+++ b/medicine/Enfance/John_Boynton_Priestley/John_Boynton_Priestley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Boynton Priestley, est un écrivain et homme de radio britannique, né le 13 septembre 1894 à Bradford et mort le 14 août 1984 à Stratford-upon-Avon.
 Il a notamment été critique, essayiste, homme de radio et de télévision, ainsi que romancier, dramaturge, scénariste et auteur d'ouvrages de littérature d'enfance et de jeunesse, de science-fiction et de genre policier.
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la littérature anglaise à l'Université de Cambridge et fait ses premiers pas dans le monde de la littérature comme critique et essayiste pour divers magazines et revues.
-Les Bons Compagnons (The Good Companions, 1929), son troisième roman, « lui assure la célébrité »[1]. Ce roman est en outre adapté au cinéma et au théâtre, tout comme le récit fantastique intitulé Dans la nuit (Benighted, 1927), en 1932 par James Whale sous le titre La Maison de la mort et en 1963 par William Castle sous le titre The Old Dark House. Quant à Les Hommes du dernier jour (The Doomsday Men, 1938), aussi traduit sous le titre Quand sonnera l'heure, c'est un gros succès de librairie qui raconte « l'enquête, dans les déserts californiens, de trois hommes qui, pour des motifs différents, se lancent sur la piste d'une curieuse fratrie, les Mac Michael »[1], qui vise à déclencher la fin du monde grâce à l'arme atomique.
+Les Bons Compagnons (The Good Companions, 1929), son troisième roman, « lui assure la célébrité ». Ce roman est en outre adapté au cinéma et au théâtre, tout comme le récit fantastique intitulé Dans la nuit (Benighted, 1927), en 1932 par James Whale sous le titre La Maison de la mort et en 1963 par William Castle sous le titre The Old Dark House. Quant à Les Hommes du dernier jour (The Doomsday Men, 1938), aussi traduit sous le titre Quand sonnera l'heure, c'est un gros succès de librairie qui raconte « l'enquête, dans les déserts californiens, de trois hommes qui, pour des motifs différents, se lancent sur la piste d'une curieuse fratrie, les Mac Michael », qui vise à déclencher la fin du monde grâce à l'arme atomique.
 Durant la Deuxième Guerre mondiale, Priestley anime avec succès à la BBC des émissions destinées à soutenir le moral des Anglais.
 Grand voyageur, il parcourt le monde, et le voyage tient une place importante dans son œuvre romanesque, bien que le théâtre demeure toutefois son art de prédilection, ses pièces obtenant de gros succès dans le West End de Londres, tout comme sur Broadway, notamment Virage dangereux (Dangerous Corner, 1932), pièce policière jouée près de 300 fois sur Broadway, et Un inspecteur vous demande (An Inspector Calls, 1947), qui compte près de 100 représentations sur Broadway lors de la première production en 1947, et plus de 450, lors de la reprise en 1994.
 Dès 1955, Priestley réalise des émissions pour la télévision britannique et rédige le scénario du film Vacances sur ordonnance (Last Holiday), réalisé par Henry Cass en 1950, avec Alec Guinness.
-Au cours des années 1960, son œuvre romanesque devient de plus en plus éclectique, et aborde tour à tour « la science-fiction, le fantastique, l'espionnage ou le thriller, tels Le Reflet de Saturne (Saturn Over the Water, 1961), où une organisation internationale rappelant celle de Fu Manchu ambitionne d'asservir le monde ; Une histoire à dormir debout (The Shapes of Sleep, 1962), un récit qui traite de la manipulation d'une population par un système de contrôle hypnotique ; ou Salt Is Leaving (1966) qui met en scène un médecin désireux de retrouver un libraire disparu »[1].
+Au cours des années 1960, son œuvre romanesque devient de plus en plus éclectique, et aborde tour à tour « la science-fiction, le fantastique, l'espionnage ou le thriller, tels Le Reflet de Saturne (Saturn Over the Water, 1961), où une organisation internationale rappelant celle de Fu Manchu ambitionne d'asservir le monde ; Une histoire à dormir debout (The Shapes of Sleep, 1962), un récit qui traite de la manipulation d'une population par un système de contrôle hypnotique ; ou Salt Is Leaving (1966) qui met en scène un médecin désireux de retrouver un libraire disparu ».
 Il est le père du monteur et monteur son Tom Priestley (né en 1932).
 </t>
         </is>
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Adam in Moonshine (1927) Publié en français sous le titre Adam au clair de lune, Liège, Maréchal, éditeur, 1946 ; réédition, Paris, Phébus, 1997
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adam in Moonshine (1927) Publié en français sous le titre Adam au clair de lune, Liège, Maréchal, éditeur, 1946 ; réédition, Paris, Phébus, 1997
 Benighted (1928) Publié en français sous le titre Dans la nuit, Paris, éditions Excelsior, 1934
 The Good Companions (1929) Publié en français sous le titre Les Bons Compagnons, vol. I : Coups de tête ; vol. II : Coups de théâtre, Paris, Stock, Delamain et Boutelleau, 1932
 Farthing Hall (1929), en collaboration avec Hugh Walpole
@@ -582,14 +601,116 @@
 It's an Old Country (1967)
 The Image Men Vol. 1: Out of Town (1968)
 The Image Men Vol. 2: London End (1968)
-King of Lies (2013), roman posthume
-Ouvrage de littérature d'enfance et de jeunesse
-Snoggle (1971)
-Recueils de nouvelles
-The Other Place (1952)
-The Carfitt Crisis (1975)
-Nouvelles
-The Old Dark House (1929)
+King of Lies (2013), roman posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Snoggle (1971)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Other Place (1952)
+The Carfitt Crisis (1975)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Old Dark House (1929)
 The Town Major of Miraucourt (1930)
 What a Life! (1931) Publié en français sous le titre Quelle vie !, Paris, Éditions Opta, L'Anthologie du mystère no 18, 1974
 Bad Companions (1931)
@@ -600,9 +721,43 @@
 The Grey Ones (1953)
 Uncle Phil on TV (1953)
 The Strange Girl (1953)
-Night Sequence (1953)
-Théâtre
-The Good Companions (1931), adaptation du roman homonyme
+Night Sequence (1953)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Good Companions (1931), adaptation du roman homonyme
 Dangerous Corner (1932) Publié en français sous le titre Virage dangereux, Paris, éditions Billaudot, 1951 ; réédition, Paris, L'Avant-scène-Fémina-théâtre no 182, 1958
 Laburnum Grove (1933)
 Eden End (1934)
@@ -619,11 +774,79 @@
 Dragon's Mouth (1952), en collaboration avec Jacquetta Hawkes
 The 31st of June: a Tale of True Love, Enterprise and Progress, in the Arturian and Ad-Atomic Ages (1961)
 The Scandalous Affair of Mr Kettle and Mrs Moon (1963) Publié en français sous le titre Si tout le monde en faisait autant, Paris, Librairie théâtrale, 1979
-A Severed Head (1964)
-Scénario
-Vacances sur ordonnance (Last Holiday) (1950)
-Essais littéraires
-Papers from Lilliput (1922)
+A Severed Head (1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénario</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vacances sur ordonnance (Last Holiday) (1950)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essais littéraires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Papers from Lilliput (1922)
 Figures in Modern Literature (1924)
 The English Comic Characters (1925)
 George Meredith (1926)
@@ -633,9 +856,43 @@
 The Wonderful World of the Theatre (1959)
 Literature and Western Man (1960) Publié en français sous le titre La Littérature et l'homme d'Occident, Paris, Gallimard, Du monde entier, 1963
 Charles Dickens and His World (1961) Publié en français sous le titre Charles Dickens, Paris, Hachette, 1963
-Thomas Love Peacock (1966)
-Œuvres politiques et historiques
-English Journey (1934)
+Thomas Love Peacock (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Œuvres politiques et historiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>English Journey (1934)
 Britain Under Fire (1942)
 Letter To A Returning Serviceman (1945)
 The Arts Under Socialism (1947)
@@ -644,9 +901,43 @@
 The Prince of Pleasure (1969)
 The Edwardians (1970)
 Victoria's Heyday (1972)
-The English (1973)
-Autobiographie et journaux de voyage
-English Journey (1934)
+The English (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boynton_Priestley</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autobiographie et journaux de voyage</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>English Journey (1934)
 Midnight on the Desert (1937)
 Rain Upon Godshill: A Further Chapter of Autobiography (1939)
 Delight (1949)
